--- a/dev_stuffs/数值投放模板.xlsx
+++ b/dev_stuffs/数值投放模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\EX\HMCL\.minecraft\versions\Palmon\dev_stuffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67078E-462E-4968-A728-F2B6EEAE0AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C2BE9-0BC3-4E41-87E2-E41B89E410CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="3405" windowWidth="19860" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="3510" windowWidth="30825" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="伤害计算" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,22 +389,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -416,37 +422,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,20 +719,20 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -865,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -878,73 +869,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="B3" s="23"/>
+      <c r="H3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="H4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="B5" s="24"/>
+      <c r="H5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="O5" s="18" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="O5" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -964,8 +955,8 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
@@ -975,51 +966,51 @@
       <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="21" t="s">
+      <c r="S6" s="8"/>
+      <c r="T6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="W6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="22" t="s">
+      <c r="Z6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="22" t="s">
+      <c r="AB6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
       <c r="B7" s="2">
@@ -1033,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="H7" s="14">
+      <c r="H7" s="16">
         <v>1</v>
       </c>
       <c r="I7" s="2">
@@ -1049,48 +1040,48 @@
         <f t="shared" ref="L7:L10" si="0">CEILING(J7/(I7-K7),1)</f>
         <v>10</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="7">
         <v>1</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="12">
         <v>3</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="2">
         <v>10</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="13">
         <v>0.7</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="12">
         <f>(O7+P7)*Q7</f>
         <v>9.1</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="12">
         <v>15</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="2">
         <v>10</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="13">
         <v>1</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="12">
         <f>(T7+U7)*V7</f>
         <v>25</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Y7" s="12">
         <v>0</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="Z7" s="2">
         <v>2</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AA7" s="13">
         <v>0.5</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="12">
         <f>(Y7+Z7)*AA7</f>
         <v>1</v>
       </c>
@@ -1105,7 +1096,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1113,14 +1104,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D27" si="1">10+(C8-1)*B8</f>
+        <f t="shared" ref="D8:D10" si="1">10+(C8-1)*B8</f>
         <v>11</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E27" si="2">D8-D7</f>
+        <f t="shared" ref="E8:E10" si="2">D8-D7</f>
         <v>1</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="2">
         <v>6</v>
       </c>
@@ -1134,31 +1125,31 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="O8" s="24">
+      <c r="M8" s="7"/>
+      <c r="O8" s="12">
         <v>5</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="24">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="12">
         <f>(O8+P7)*Q7</f>
         <v>10.5</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="12">
         <v>20</v>
       </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="24">
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="12">
         <f>(T8+U7)*V7</f>
         <v>30</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="Y8" s="12">
         <v>4</v>
       </c>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="24">
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="12">
         <f>(Y8+Z7)*AA7</f>
         <v>3</v>
       </c>
@@ -1174,7 +1165,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1189,7 +1180,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="2">
         <v>8</v>
       </c>
@@ -1203,31 +1194,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="O9" s="24">
+      <c r="M9" s="7"/>
+      <c r="O9" s="12">
         <v>9</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="24">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="12">
         <f>(O9+P7)*Q7</f>
         <v>13.299999999999999</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="12">
         <v>30</v>
       </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="24">
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="12">
         <f>(T9+U7)*V7</f>
         <v>40</v>
       </c>
-      <c r="Y9" s="24">
+      <c r="Y9" s="12">
         <v>8</v>
       </c>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="24">
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="12">
         <f>(Y9+Z7)*AA7</f>
         <v>5</v>
       </c>
@@ -1243,7 +1234,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -1258,7 +1249,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="2">
         <v>11</v>
       </c>
@@ -1272,31 +1263,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="O10" s="24">
+      <c r="M10" s="7"/>
+      <c r="O10" s="12">
         <v>12</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="24">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="12">
         <f>(O10+P7)*Q7</f>
         <v>15.399999999999999</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="12">
         <v>40</v>
       </c>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="24">
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="12">
         <f>(T10+U7)*V7</f>
         <v>50</v>
       </c>
-      <c r="Y10" s="24">
+      <c r="Y10" s="12">
         <v>12</v>
       </c>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="24">
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="12">
         <f>(Y10+Z7)*AA7</f>
         <v>7</v>
       </c>
@@ -1324,7 +1315,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>2</v>
       </c>
       <c r="B12" s="2">
@@ -1341,7 +1332,7 @@
         <f>D12-D10</f>
         <v>13</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="16">
         <v>2</v>
       </c>
       <c r="I12" s="2">
@@ -1358,48 +1349,48 @@
         <f>CEILING(J12/(I12-K12),1)</f>
         <v>7</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="7">
         <v>2</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="12">
         <v>3</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="2">
         <v>25</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="13">
         <v>1</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="12">
         <f>(O12+P12)*Q12</f>
         <v>28</v>
       </c>
-      <c r="T12" s="24">
+      <c r="T12" s="12">
         <v>15</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="2">
         <v>20</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="13">
         <v>2.5</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="12">
         <f>(T12+U12)*V12</f>
         <v>87.5</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="Y12" s="12">
         <v>0</v>
       </c>
-      <c r="Z12" s="25">
+      <c r="Z12" s="2">
         <v>14</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AA12" s="13">
         <v>0.7</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="12">
         <f>(Y12+Z12)*AA12</f>
         <v>9.7999999999999989</v>
       </c>
@@ -1415,7 +1406,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -1430,7 +1421,7 @@
         <f>D13-D12</f>
         <v>4</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="2">
         <f>D13</f>
         <v>30</v>
@@ -1445,31 +1436,31 @@
         <f>CEILING(J13/(I13-K13),1)</f>
         <v>5</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="O13" s="24">
+      <c r="M13" s="7"/>
+      <c r="O13" s="12">
         <v>5</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="24">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="12">
         <f>(O13+P12)*Q12</f>
         <v>30</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="12">
         <v>20</v>
       </c>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="24">
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="12">
         <f>(T13+U12)*V12</f>
         <v>100</v>
       </c>
-      <c r="Y13" s="24">
+      <c r="Y13" s="12">
         <v>4</v>
       </c>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="24">
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="12">
         <f>(Y13+Z12)*AA12</f>
         <v>12.6</v>
       </c>
@@ -1485,7 +1476,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -1500,7 +1491,7 @@
         <f>D14-D13</f>
         <v>4</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="2">
         <f>D14</f>
         <v>34</v>
@@ -1515,31 +1506,31 @@
         <f>CEILING(J14/(I14-K14),1)</f>
         <v>5</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="O14" s="24">
+      <c r="M14" s="7"/>
+      <c r="O14" s="12">
         <v>9</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="24">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="12">
         <f>(O14+P12)*Q12</f>
         <v>34</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="12">
         <v>30</v>
       </c>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="24">
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="12">
         <f>(T14+U12)*V12</f>
         <v>125</v>
       </c>
-      <c r="Y14" s="24">
+      <c r="Y14" s="12">
         <v>8</v>
       </c>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="24">
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="12">
         <f>(Y14+Z12)*AA12</f>
         <v>15.399999999999999</v>
       </c>
@@ -1555,7 +1546,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -1570,7 +1561,7 @@
         <f>D15-D14</f>
         <v>4</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="2">
         <f>D15</f>
         <v>38</v>
@@ -1585,31 +1576,31 @@
         <f>CEILING(J15/(I15-K15),1)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="O15" s="24">
+      <c r="M15" s="7"/>
+      <c r="O15" s="12">
         <v>12</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="24">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="12">
         <f>(O15+P12)*Q12</f>
         <v>37</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="12">
         <v>40</v>
       </c>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="24">
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="12">
         <f>(T15+U12)*V12</f>
         <v>150</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="Y15" s="12">
         <v>12</v>
       </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="24">
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="12">
         <f>(Y15+Z12)*AA12</f>
         <v>18.2</v>
       </c>
@@ -1632,12 +1623,12 @@
         <v>20</v>
       </c>
       <c r="AG16" s="2">
-        <f>CEILING(AE16/(I17-AF16),1)</f>
+        <f t="shared" ref="AG16:AG21" si="3">CEILING(AE16/(I17-AF16),1)</f>
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <v>3</v>
       </c>
       <c r="B17" s="2">
@@ -1647,18 +1638,18 @@
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <f>10+(C17-1)*B17</f>
+        <f t="shared" ref="D17:D22" si="4">10+(C17-1)*B17</f>
         <v>82</v>
       </c>
       <c r="E17" s="2">
         <f>D17-D15</f>
         <v>44</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="16">
         <v>3</v>
       </c>
       <c r="I17" s="2">
-        <f>D17</f>
+        <f t="shared" ref="I17:I22" si="5">D17</f>
         <v>82</v>
       </c>
       <c r="J17" s="2">
@@ -1668,47 +1659,47 @@
         <v>25</v>
       </c>
       <c r="L17" s="2">
-        <f>CEILING(J17/(I17-K17),1)</f>
+        <f t="shared" ref="L17:L22" si="6">CEILING(J17/(I17-K17),1)</f>
         <v>7</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="7">
         <v>3</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="12">
         <v>3</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="24">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="12">
         <f>(O17+P17)*Q17</f>
         <v>0</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="12">
         <v>20</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17" s="2">
         <v>40</v>
       </c>
-      <c r="V17" s="26">
+      <c r="V17" s="13">
         <v>6</v>
       </c>
-      <c r="W17" s="24">
+      <c r="W17" s="12">
         <f>(T17+U17)*V17</f>
         <v>360</v>
       </c>
-      <c r="Y17" s="24">
+      <c r="Y17" s="12">
         <v>4</v>
       </c>
-      <c r="Z17" s="25">
+      <c r="Z17" s="2">
         <v>20</v>
       </c>
-      <c r="AA17" s="26">
+      <c r="AA17" s="13">
         <v>1</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AB17" s="12">
         <f>(Y17+Z17)*AA17</f>
         <v>24</v>
       </c>
@@ -1719,12 +1710,12 @@
         <v>20</v>
       </c>
       <c r="AG17" s="2">
-        <f>CEILING(AE17/(I18-AF17),1)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="2">
         <v>9</v>
       </c>
@@ -1732,16 +1723,16 @@
         <v>10</v>
       </c>
       <c r="D18" s="2">
-        <f>10+(C18-1)*B18</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="E18" s="2">
         <f>D18-D17</f>
         <v>9</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="2">
-        <f>D18</f>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="J18" s="2">
@@ -1751,33 +1742,33 @@
         <v>25</v>
       </c>
       <c r="L18" s="2">
-        <f>CEILING(J18/(I18-K18),1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="12">
         <v>5</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="24">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="12">
         <f>(O18+P17)*Q17</f>
         <v>0</v>
       </c>
-      <c r="T18" s="24">
+      <c r="T18" s="12">
         <v>30</v>
       </c>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="24">
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="12">
         <f>(T18+U17)*V17</f>
         <v>420</v>
       </c>
-      <c r="Y18" s="24">
+      <c r="Y18" s="12">
         <v>8</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="24">
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="12">
         <f>(Y18+Z17)*AA17</f>
         <v>28</v>
       </c>
@@ -1788,12 +1779,12 @@
         <v>20</v>
       </c>
       <c r="AG18" s="2">
-        <f>CEILING(AE18/(I19-AF18),1)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2">
         <v>9</v>
       </c>
@@ -1801,16 +1792,16 @@
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <f>10+(C19-1)*B19</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E19" s="2">
         <f>D19-D18</f>
         <v>9</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="2">
-        <f>D19</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="J19" s="2">
@@ -1820,33 +1811,33 @@
         <v>25</v>
       </c>
       <c r="L19" s="2">
-        <f>CEILING(J19/(I19-K19),1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="12">
         <v>9</v>
       </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="24">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="12">
         <f>(O19+P17)*Q17</f>
         <v>0</v>
       </c>
-      <c r="T19" s="24">
+      <c r="T19" s="12">
         <v>40</v>
       </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="24">
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="12">
         <f>(T19+U17)*V17</f>
         <v>480</v>
       </c>
-      <c r="Y19" s="24">
+      <c r="Y19" s="12">
         <v>12</v>
       </c>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="24">
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="12">
         <f>(Y19+Z17)*AA17</f>
         <v>32</v>
       </c>
@@ -1857,12 +1848,12 @@
         <v>20</v>
       </c>
       <c r="AG19" s="2">
-        <f>CEILING(AE19/(I20-AF19),1)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2">
         <v>9</v>
       </c>
@@ -1870,16 +1861,16 @@
         <v>12</v>
       </c>
       <c r="D20" s="2">
-        <f>10+(C20-1)*B20</f>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="E20" s="2">
         <f>D20-D19</f>
         <v>9</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="2">
-        <f>D20</f>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="J20" s="2">
@@ -1889,13 +1880,13 @@
         <v>25</v>
       </c>
       <c r="L20" s="2">
-        <f>CEILING(J20/(I20-K20),1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
       <c r="AE20" s="2">
         <v>2500</v>
       </c>
@@ -1903,12 +1894,12 @@
         <v>20</v>
       </c>
       <c r="AG20" s="2">
-        <f>CEILING(AE20/(I21-AF20),1)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
@@ -1916,16 +1907,16 @@
         <v>13</v>
       </c>
       <c r="D21" s="2">
-        <f>10+(C21-1)*B21</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="E21" s="2">
         <f>D21-D20</f>
         <v>9</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="2">
-        <f>D21</f>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="J21" s="2">
@@ -1935,47 +1926,47 @@
         <v>25</v>
       </c>
       <c r="L21" s="2">
-        <f>CEILING(J21/(I21-K21),1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="7">
         <v>3.5</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="12">
         <v>3</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="24">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="12">
         <f>(O21+P21)*Q21</f>
         <v>0</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="12">
         <v>20</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="2">
         <v>60</v>
       </c>
-      <c r="V21" s="26">
+      <c r="V21" s="13">
         <v>7</v>
       </c>
-      <c r="W21" s="24">
+      <c r="W21" s="12">
         <f>(T21+U21)*V21</f>
         <v>560</v>
       </c>
-      <c r="Y21" s="24">
+      <c r="Y21" s="12">
         <v>4</v>
       </c>
-      <c r="Z21" s="25">
+      <c r="Z21" s="2">
         <v>35</v>
       </c>
-      <c r="AA21" s="26">
+      <c r="AA21" s="13">
         <v>1.35</v>
       </c>
-      <c r="AB21" s="24">
+      <c r="AB21" s="12">
         <f>(Y21+Z21)*AA21</f>
         <v>52.650000000000006</v>
       </c>
@@ -1986,12 +1977,12 @@
         <v>20</v>
       </c>
       <c r="AG21" s="2">
-        <f>CEILING(AE21/(I22-AF21),1)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2">
         <v>9</v>
       </c>
@@ -1999,16 +1990,16 @@
         <v>14</v>
       </c>
       <c r="D22" s="2">
-        <f>10+(C22-1)*B22</f>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="E22" s="2">
         <f>D22-D21</f>
         <v>9</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="2">
-        <f>D22</f>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="J22" s="2">
@@ -2018,34 +2009,34 @@
         <v>25</v>
       </c>
       <c r="L22" s="2">
-        <f>CEILING(J22/(I22-K22),1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="O22" s="24">
+      <c r="M22" s="7"/>
+      <c r="O22" s="12">
         <v>5</v>
       </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="24">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="12">
         <f>(O22+P21)*Q21</f>
         <v>0</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T22" s="12">
         <v>30</v>
       </c>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="24">
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="12">
         <f>(T22+U21)*V21</f>
         <v>630</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="Y22" s="12">
         <v>8</v>
       </c>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="24">
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="12">
         <f>(Y22+Z21)*AA21</f>
         <v>58.050000000000004</v>
       </c>
@@ -2061,31 +2052,31 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="M23" s="23"/>
-      <c r="O23" s="24">
+      <c r="M23" s="7"/>
+      <c r="O23" s="12">
         <v>9</v>
       </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="24">
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="12">
         <f>(O23+P21)*Q21</f>
         <v>0</v>
       </c>
-      <c r="T23" s="24">
+      <c r="T23" s="12">
         <v>40</v>
       </c>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="24">
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="12">
         <f>(T23+U21)*V21</f>
         <v>700</v>
       </c>
-      <c r="Y23" s="24">
+      <c r="Y23" s="12">
         <v>12</v>
       </c>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="24">
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="12">
         <f>(Y23+Z21)*AA21</f>
         <v>63.45</v>
       </c>
@@ -2101,7 +2092,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>4</v>
       </c>
       <c r="B24" s="2">
@@ -2118,7 +2109,7 @@
         <f>D24-D22</f>
         <v>107</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="16">
         <v>3.5</v>
       </c>
       <c r="I24" s="2">
@@ -2135,7 +2126,7 @@
         <f>CEILING(J24/(I24-K24),1)</f>
         <v>9</v>
       </c>
-      <c r="M24" s="23"/>
+      <c r="M24" s="7"/>
       <c r="AE24" s="2">
         <v>4000</v>
       </c>
@@ -2148,7 +2139,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="2">
         <v>16</v>
       </c>
@@ -2163,7 +2154,7 @@
         <f>D25-D24</f>
         <v>16</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="2">
         <f>D21</f>
         <v>118</v>
@@ -2178,44 +2169,44 @@
         <f>CEILING(J25/(I25-K25),1)</f>
         <v>8</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="7">
         <v>4</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="12">
         <v>3</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="24">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="12">
         <f>(O25+P25)*Q25</f>
         <v>0</v>
       </c>
-      <c r="T25" s="24">
+      <c r="T25" s="12">
         <v>20</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25" s="2">
         <v>80</v>
       </c>
-      <c r="V25" s="26">
+      <c r="V25" s="13">
         <v>9</v>
       </c>
-      <c r="W25" s="24">
+      <c r="W25" s="12">
         <f>(T25+U25)*V25</f>
         <v>900</v>
       </c>
-      <c r="Y25" s="24">
+      <c r="Y25" s="12">
         <v>4</v>
       </c>
-      <c r="Z25" s="25">
+      <c r="Z25" s="2">
         <v>60</v>
       </c>
-      <c r="AA25" s="26">
+      <c r="AA25" s="13">
         <v>1.6</v>
       </c>
-      <c r="AB25" s="24">
+      <c r="AB25" s="12">
         <f>(Y25+Z25)*AA25</f>
         <v>102.4</v>
       </c>
@@ -2231,7 +2222,7 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="2">
         <v>16</v>
       </c>
@@ -2246,7 +2237,7 @@
         <f>D26-D25</f>
         <v>16</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="2">
         <f>D22</f>
         <v>127</v>
@@ -2261,31 +2252,31 @@
         <f>CEILING(J26/(I26-K26),1)</f>
         <v>7</v>
       </c>
-      <c r="M26" s="23"/>
-      <c r="O26" s="24">
+      <c r="M26" s="7"/>
+      <c r="O26" s="12">
         <v>5</v>
       </c>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="24">
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="12">
         <f>(O26+P25)*Q25</f>
         <v>0</v>
       </c>
-      <c r="T26" s="24">
+      <c r="T26" s="12">
         <v>30</v>
       </c>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="24">
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="12">
         <f>(T26+U25)*V25</f>
         <v>990</v>
       </c>
-      <c r="Y26" s="24">
+      <c r="Y26" s="12">
         <v>8</v>
       </c>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="24">
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="12">
         <f>(Y26+Z25)*AA25</f>
         <v>108.80000000000001</v>
       </c>
@@ -2301,30 +2292,30 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="O27" s="24">
+      <c r="O27" s="12">
         <v>9</v>
       </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="24">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="12">
         <f>(O27+P25)*Q25</f>
         <v>0</v>
       </c>
-      <c r="T27" s="24">
+      <c r="T27" s="12">
         <v>40</v>
       </c>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="24">
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="12">
         <f>(T27+U25)*V25</f>
         <v>1080</v>
       </c>
-      <c r="Y27" s="24">
+      <c r="Y27" s="12">
         <v>12</v>
       </c>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="24">
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="12">
         <f>(Y27+Z25)*AA25</f>
         <v>115.2</v>
       </c>
@@ -2340,7 +2331,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>5</v>
       </c>
       <c r="B28" s="2">
@@ -2357,7 +2348,7 @@
         <f>D28-D26</f>
         <v>254</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="16">
         <v>4</v>
       </c>
       <c r="I28" s="2">
@@ -2386,7 +2377,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2">
         <v>31</v>
       </c>
@@ -2401,7 +2392,7 @@
         <f>D29-D28</f>
         <v>48</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="2">
         <f>D25</f>
         <v>250</v>
@@ -2416,50 +2407,50 @@
         <f>CEILING(J29/(I29-K29),1)</f>
         <v>6</v>
       </c>
-      <c r="M29" s="27">
+      <c r="M29" s="14">
         <v>4.5</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="12">
         <v>3</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="24">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="12">
         <f>(O29+P29)*Q29</f>
         <v>0</v>
       </c>
-      <c r="T29" s="24">
+      <c r="T29" s="12">
         <v>20</v>
       </c>
-      <c r="U29" s="25">
+      <c r="U29" s="2">
         <v>100</v>
       </c>
-      <c r="V29" s="26">
+      <c r="V29" s="13">
         <v>11</v>
       </c>
-      <c r="W29" s="24">
+      <c r="W29" s="12">
         <f>(T29+U29)*V29</f>
         <v>1320</v>
       </c>
-      <c r="Y29" s="24">
+      <c r="Y29" s="12">
         <v>4</v>
       </c>
-      <c r="Z29" s="25">
+      <c r="Z29" s="2">
         <v>80</v>
       </c>
-      <c r="AA29" s="26">
+      <c r="AA29" s="13">
         <v>2</v>
       </c>
-      <c r="AB29" s="24">
+      <c r="AB29" s="12">
         <f>(Y29+Z29)*AA29</f>
         <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2">
         <v>32</v>
       </c>
@@ -2474,7 +2465,7 @@
         <f>D30-D29</f>
         <v>50</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="2">
         <f>D26</f>
         <v>266</v>
@@ -2489,36 +2480,36 @@
         <f>CEILING(J30/(I30-K30),1)</f>
         <v>5</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="12">
         <v>5</v>
       </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="24">
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="12">
         <f>(O30+P29)*Q29</f>
         <v>0</v>
       </c>
-      <c r="T30" s="24">
+      <c r="T30" s="12">
         <v>30</v>
       </c>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="24">
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="12">
         <f>(T30+U29)*V29</f>
         <v>1430</v>
       </c>
-      <c r="Y30" s="24">
+      <c r="Y30" s="12">
         <v>8</v>
       </c>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="24">
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="12">
         <f>(Y30+Z29)*AA29</f>
         <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2">
         <v>35</v>
       </c>
@@ -2533,37 +2524,37 @@
         <f>D31-D30</f>
         <v>92</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="O31" s="24">
+      <c r="M31" s="7"/>
+      <c r="O31" s="12">
         <v>9</v>
       </c>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="24">
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="12">
         <f>(O31+P29)*Q29</f>
         <v>0</v>
       </c>
-      <c r="T31" s="24">
+      <c r="T31" s="12">
         <v>40</v>
       </c>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="24">
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="12">
         <f>(T31+U29)*V29</f>
         <v>1540</v>
       </c>
-      <c r="Y31" s="24">
+      <c r="Y31" s="12">
         <v>12</v>
       </c>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="24">
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="12">
         <f>(Y31+Z29)*AA29</f>
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="H32" s="14">
+      <c r="H32" s="16">
         <v>4.5</v>
       </c>
       <c r="I32" s="2">
@@ -2580,10 +2571,10 @@
         <f>CEILING(J32/(I32-K32),1)</f>
         <v>12</v>
       </c>
-      <c r="M32" s="23"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="H33" s="15"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="2">
         <v>280</v>
       </c>
@@ -2597,50 +2588,50 @@
         <f>CEILING(J33/(I33-K33),1)</f>
         <v>10</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="7">
         <v>5</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O33" s="12">
         <v>3</v>
       </c>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="24">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="12">
         <f>(O33+P33)*Q33</f>
         <v>0</v>
       </c>
-      <c r="T33" s="24">
+      <c r="T33" s="12">
         <v>20</v>
       </c>
-      <c r="U33" s="25">
+      <c r="U33" s="2">
         <v>140</v>
       </c>
-      <c r="V33" s="26">
+      <c r="V33" s="13">
         <v>14</v>
       </c>
-      <c r="W33" s="24">
+      <c r="W33" s="12">
         <f>(T33+U33)*V33</f>
         <v>2240</v>
       </c>
-      <c r="Y33" s="24">
+      <c r="Y33" s="12">
         <v>4</v>
       </c>
-      <c r="Z33" s="25">
+      <c r="Z33" s="2">
         <v>100</v>
       </c>
-      <c r="AA33" s="26">
+      <c r="AA33" s="13">
         <v>2.5</v>
       </c>
-      <c r="AB33" s="24">
+      <c r="AB33" s="12">
         <f>(Y33+Z33)*AA33</f>
         <v>260</v>
       </c>
     </row>
     <row r="34" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="H34" s="16"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="2">
         <v>310</v>
       </c>
@@ -2654,67 +2645,67 @@
         <f>CEILING(J34/(I34-K34),1)</f>
         <v>9</v>
       </c>
-      <c r="M34" s="23"/>
-      <c r="O34" s="24">
+      <c r="M34" s="7"/>
+      <c r="O34" s="12">
         <v>5</v>
       </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="24">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="12">
         <f>(O34+P33)*Q33</f>
         <v>0</v>
       </c>
-      <c r="T34" s="24">
+      <c r="T34" s="12">
         <v>30</v>
       </c>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="24">
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="12">
         <f>(T34+U33)*V33</f>
         <v>2380</v>
       </c>
-      <c r="Y34" s="24">
+      <c r="Y34" s="12">
         <v>8</v>
       </c>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="24">
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="12">
         <f>(Y34+Z33)*AA33</f>
         <v>270</v>
       </c>
     </row>
     <row r="35" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="M35" s="23"/>
-      <c r="O35" s="24">
+      <c r="M35" s="7"/>
+      <c r="O35" s="12">
         <v>9</v>
       </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="24">
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="12">
         <f>(O35+P33)*Q33</f>
         <v>0</v>
       </c>
-      <c r="T35" s="24">
+      <c r="T35" s="12">
         <v>40</v>
       </c>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="24">
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="12">
         <f>(T35+U33)*V33</f>
         <v>2520</v>
       </c>
-      <c r="Y35" s="24">
+      <c r="Y35" s="12">
         <v>12</v>
       </c>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="24">
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="12">
         <f>(Y35+Z33)*AA33</f>
         <v>280</v>
       </c>
     </row>
     <row r="36" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="H36" s="14">
+      <c r="H36" s="16">
         <v>5</v>
       </c>
       <c r="I36" s="2">
@@ -2731,10 +2722,10 @@
         <f>CEILING(J36/(I36-K36),1)</f>
         <v>7</v>
       </c>
-      <c r="M36" s="23"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="H37" s="15"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="2">
         <f>D29</f>
         <v>568</v>
@@ -2749,50 +2740,50 @@
         <f>CEILING(J37/(I37-K37),1)</f>
         <v>6</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="7">
         <v>5.5</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="N37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="12">
         <v>3</v>
       </c>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="24">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="12">
         <f>(O37+P37)*Q37</f>
         <v>0</v>
       </c>
-      <c r="T37" s="24">
+      <c r="T37" s="12">
         <v>20</v>
       </c>
-      <c r="U37" s="25">
+      <c r="U37" s="2">
         <v>180</v>
       </c>
-      <c r="V37" s="26">
+      <c r="V37" s="13">
         <v>17</v>
       </c>
-      <c r="W37" s="24">
+      <c r="W37" s="12">
         <f>(T37+U37)*V37</f>
         <v>3400</v>
       </c>
-      <c r="Y37" s="24">
+      <c r="Y37" s="12">
         <v>4</v>
       </c>
-      <c r="Z37" s="25">
+      <c r="Z37" s="2">
         <v>120</v>
       </c>
-      <c r="AA37" s="26">
+      <c r="AA37" s="13">
         <v>3</v>
       </c>
-      <c r="AB37" s="24">
+      <c r="AB37" s="12">
         <f>(Y37+Z37)*AA37</f>
         <v>372</v>
       </c>
     </row>
     <row r="38" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="H38" s="15"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="2">
         <f>D30</f>
         <v>618</v>
@@ -2807,36 +2798,36 @@
         <f>CEILING(J38/(I38-K38),1)</f>
         <v>5</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="12">
         <v>5</v>
       </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="24">
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="12">
         <f>(O38+P37)*Q37</f>
         <v>0</v>
       </c>
-      <c r="T38" s="24">
+      <c r="T38" s="12">
         <v>30</v>
       </c>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="24">
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="12">
         <f>(T38+U37)*V37</f>
         <v>3570</v>
       </c>
-      <c r="Y38" s="24">
+      <c r="Y38" s="12">
         <v>8</v>
       </c>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="24">
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="12">
         <f>(Y38+Z37)*AA37</f>
         <v>384</v>
       </c>
     </row>
     <row r="39" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="H39" s="16"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="2">
         <f>D31</f>
         <v>710</v>
@@ -2851,30 +2842,30 @@
         <f>CEILING(J39/(I39-K39),1)</f>
         <v>4</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="12">
         <v>9</v>
       </c>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="24">
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="12">
         <f>(O39+P37)*Q37</f>
         <v>0</v>
       </c>
-      <c r="T39" s="24">
+      <c r="T39" s="12">
         <v>40</v>
       </c>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="24">
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="12">
         <f>(T39+U37)*V37</f>
         <v>3740</v>
       </c>
-      <c r="Y39" s="24">
+      <c r="Y39" s="12">
         <v>12</v>
       </c>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="24">
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="12">
         <f>(Y39+Z37)*AA37</f>
         <v>396</v>
       </c>
@@ -2883,84 +2874,78 @@
       <c r="M41">
         <v>6</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T41" s="24">
+      <c r="T41" s="12">
         <v>20</v>
       </c>
-      <c r="U41" s="25">
+      <c r="U41" s="2">
         <v>240</v>
       </c>
-      <c r="V41" s="26">
+      <c r="V41" s="13">
         <v>21</v>
       </c>
-      <c r="W41" s="24">
+      <c r="W41" s="12">
         <f>(T41+U41)*V41</f>
         <v>5460</v>
       </c>
-      <c r="Y41" s="24">
+      <c r="Y41" s="12">
         <v>4</v>
       </c>
-      <c r="Z41" s="25">
+      <c r="Z41" s="2">
         <v>150</v>
       </c>
-      <c r="AA41" s="26">
+      <c r="AA41" s="13">
         <v>3.5</v>
       </c>
-      <c r="AB41" s="24">
+      <c r="AB41" s="12">
         <f>(Y41+Z41)*AA41</f>
         <v>539</v>
       </c>
     </row>
     <row r="42" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="T42" s="24">
+      <c r="T42" s="12">
         <v>30</v>
       </c>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="24">
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="12">
         <f>(T42+U41)*V41</f>
         <v>5670</v>
       </c>
-      <c r="Y42" s="24">
+      <c r="Y42" s="12">
         <v>8</v>
       </c>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="24">
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="12">
         <f>(Y42+Z41)*AA41</f>
         <v>553</v>
       </c>
     </row>
     <row r="43" spans="8:28" x14ac:dyDescent="0.15">
-      <c r="T43" s="24">
+      <c r="T43" s="12">
         <v>40</v>
       </c>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="24">
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="12">
         <f>(T43+U41)*V41</f>
         <v>5880</v>
       </c>
-      <c r="Y43" s="24">
+      <c r="Y43" s="12">
         <v>12</v>
       </c>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="24">
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="12">
         <f>(Y43+Z41)*AA41</f>
         <v>567</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="H1:L2"/>
     <mergeCell ref="AE6:AG6"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="H5:H6"/>
@@ -2972,12 +2957,18 @@
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="H1:L2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
